--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.70991333333333</v>
+        <v>14.299544</v>
       </c>
       <c r="H2">
-        <v>83.12974</v>
+        <v>42.898632</v>
       </c>
       <c r="I2">
-        <v>0.499916436778856</v>
+        <v>0.3403136425785068</v>
       </c>
       <c r="J2">
-        <v>0.4999164367788561</v>
+        <v>0.3403136425785068</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.480739</v>
+        <v>1.056841666666666</v>
       </c>
       <c r="N2">
-        <v>1.442217</v>
+        <v>3.170525</v>
       </c>
       <c r="O2">
-        <v>0.01989190335837768</v>
+        <v>0.04271158973519736</v>
       </c>
       <c r="P2">
-        <v>0.01989190335837768</v>
+        <v>0.04271158973519736</v>
       </c>
       <c r="Q2">
-        <v>13.32123602595333</v>
+        <v>15.11235391353333</v>
       </c>
       <c r="R2">
-        <v>119.89112423358</v>
+        <v>136.0111852218</v>
       </c>
       <c r="S2">
-        <v>0.00994428944766953</v>
+        <v>0.01453533668310378</v>
       </c>
       <c r="T2">
-        <v>0.009944289447669534</v>
+        <v>0.01453533668310378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.70991333333333</v>
+        <v>14.299544</v>
       </c>
       <c r="H3">
-        <v>83.12974</v>
+        <v>42.898632</v>
       </c>
       <c r="I3">
-        <v>0.499916436778856</v>
+        <v>0.3403136425785068</v>
       </c>
       <c r="J3">
-        <v>0.4999164367788561</v>
+        <v>0.3403136425785068</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>19.80485166666667</v>
       </c>
       <c r="N3">
-        <v>59.414555</v>
+        <v>59.41455500000001</v>
       </c>
       <c r="O3">
-        <v>0.8194804153196195</v>
+        <v>0.8004005953144415</v>
       </c>
       <c r="P3">
-        <v>0.8194804153196195</v>
+        <v>0.8004005953144415</v>
       </c>
       <c r="Q3">
-        <v>548.7907232628555</v>
+        <v>283.2003478209733</v>
       </c>
       <c r="R3">
-        <v>4939.1165093657</v>
+        <v>2548.80313038876</v>
       </c>
       <c r="S3">
-        <v>0.4096717292366412</v>
+        <v>0.2723872421134629</v>
       </c>
       <c r="T3">
-        <v>0.4096717292366413</v>
+        <v>0.2723872421134629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.70991333333333</v>
+        <v>14.299544</v>
       </c>
       <c r="H4">
-        <v>83.12974</v>
+        <v>42.898632</v>
       </c>
       <c r="I4">
-        <v>0.499916436778856</v>
+        <v>0.3403136425785068</v>
       </c>
       <c r="J4">
-        <v>0.4999164367788561</v>
+        <v>0.3403136425785068</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.645943</v>
       </c>
       <c r="O4">
-        <v>0.1606276813220029</v>
+        <v>0.1568878149503611</v>
       </c>
       <c r="P4">
-        <v>0.1606276813220029</v>
+        <v>0.1568878149503611</v>
       </c>
       <c r="Q4">
-        <v>107.5693570716466</v>
+        <v>55.51055811666399</v>
       </c>
       <c r="R4">
-        <v>968.1242136448199</v>
+        <v>499.595023049976</v>
       </c>
       <c r="S4">
-        <v>0.08030041809454529</v>
+        <v>0.05339106378194011</v>
       </c>
       <c r="T4">
-        <v>0.08030041809454531</v>
+        <v>0.0533910637819401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>58.095171</v>
       </c>
       <c r="I5">
-        <v>0.3493663143945636</v>
+        <v>0.4608673595752713</v>
       </c>
       <c r="J5">
-        <v>0.3493663143945637</v>
+        <v>0.4608673595752713</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.480739</v>
+        <v>1.056841666666666</v>
       </c>
       <c r="N5">
-        <v>1.442217</v>
+        <v>3.170525</v>
       </c>
       <c r="O5">
-        <v>0.01989190335837768</v>
+        <v>0.04271158973519736</v>
       </c>
       <c r="P5">
-        <v>0.01989190335837768</v>
+        <v>0.04271158973519736</v>
       </c>
       <c r="Q5">
-        <v>9.309538137123001</v>
+        <v>20.465799114975</v>
       </c>
       <c r="R5">
-        <v>83.78584323410701</v>
+        <v>184.192192034775</v>
       </c>
       <c r="S5">
-        <v>0.006949560962609254</v>
+        <v>0.01968437758452267</v>
       </c>
       <c r="T5">
-        <v>0.006949560962609255</v>
+        <v>0.01968437758452267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>58.095171</v>
       </c>
       <c r="I6">
-        <v>0.3493663143945636</v>
+        <v>0.4608673595752713</v>
       </c>
       <c r="J6">
-        <v>0.3493663143945637</v>
+        <v>0.4608673595752713</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>19.80485166666667</v>
       </c>
       <c r="N6">
-        <v>59.414555</v>
+        <v>59.41455500000001</v>
       </c>
       <c r="O6">
-        <v>0.8194804153196195</v>
+        <v>0.8004005953144415</v>
       </c>
       <c r="P6">
-        <v>0.8194804153196195</v>
+        <v>0.8004005953144415</v>
       </c>
       <c r="Q6">
         <v>383.5220814015451</v>
       </c>
       <c r="R6">
-        <v>3451.698732613905</v>
+        <v>3451.698732613906</v>
       </c>
       <c r="S6">
-        <v>0.2862988524187418</v>
+        <v>0.3688785089650419</v>
       </c>
       <c r="T6">
-        <v>0.2862988524187418</v>
+        <v>0.3688785089650419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>58.095171</v>
       </c>
       <c r="I7">
-        <v>0.3493663143945636</v>
+        <v>0.4608673595752713</v>
       </c>
       <c r="J7">
-        <v>0.3493663143945637</v>
+        <v>0.4608673595752713</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.645943</v>
       </c>
       <c r="O7">
-        <v>0.1606276813220029</v>
+        <v>0.1568878149503611</v>
       </c>
       <c r="P7">
-        <v>0.1606276813220029</v>
+        <v>0.1568878149503611</v>
       </c>
       <c r="Q7">
         <v>75.17478333791699</v>
@@ -880,10 +880,10 @@
         <v>676.5730500412529</v>
       </c>
       <c r="S7">
-        <v>0.05611790101321264</v>
+        <v>0.07230447302570669</v>
       </c>
       <c r="T7">
-        <v>0.05611790101321265</v>
+        <v>0.07230447302570668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>25.06236</v>
       </c>
       <c r="I8">
-        <v>0.1507172488265804</v>
+        <v>0.1988189978462219</v>
       </c>
       <c r="J8">
-        <v>0.1507172488265804</v>
+        <v>0.1988189978462219</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.480739</v>
+        <v>1.056841666666666</v>
       </c>
       <c r="N8">
-        <v>1.442217</v>
+        <v>3.170525</v>
       </c>
       <c r="O8">
-        <v>0.01989190335837768</v>
+        <v>0.04271158973519736</v>
       </c>
       <c r="P8">
-        <v>0.01989190335837768</v>
+        <v>0.04271158973519736</v>
       </c>
       <c r="Q8">
-        <v>4.01615129468</v>
+        <v>8.828982104333331</v>
       </c>
       <c r="R8">
-        <v>36.14536165212</v>
+        <v>79.46083893899998</v>
       </c>
       <c r="S8">
-        <v>0.002998052948098899</v>
+        <v>0.008491875467570919</v>
       </c>
       <c r="T8">
-        <v>0.002998052948098899</v>
+        <v>0.008491875467570919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>25.06236</v>
       </c>
       <c r="I9">
-        <v>0.1507172488265804</v>
+        <v>0.1988189978462219</v>
       </c>
       <c r="J9">
-        <v>0.1507172488265804</v>
+        <v>0.1988189978462219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,13 +989,13 @@
         <v>19.80485166666667</v>
       </c>
       <c r="N9">
-        <v>59.414555</v>
+        <v>59.41455500000001</v>
       </c>
       <c r="O9">
-        <v>0.8194804153196195</v>
+        <v>0.8004005953144415</v>
       </c>
       <c r="P9">
-        <v>0.8194804153196195</v>
+        <v>0.8004005953144415</v>
       </c>
       <c r="Q9">
         <v>165.4521074055334</v>
@@ -1004,10 +1004,10 @@
         <v>1489.0689666498</v>
       </c>
       <c r="S9">
-        <v>0.1235098336642365</v>
+        <v>0.1591348442359367</v>
       </c>
       <c r="T9">
-        <v>0.1235098336642365</v>
+        <v>0.1591348442359367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>25.06236</v>
       </c>
       <c r="I10">
-        <v>0.1507172488265804</v>
+        <v>0.1988189978462219</v>
       </c>
       <c r="J10">
-        <v>0.1507172488265804</v>
+        <v>0.1988189978462219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.645943</v>
       </c>
       <c r="O10">
-        <v>0.1606276813220029</v>
+        <v>0.1568878149503611</v>
       </c>
       <c r="P10">
-        <v>0.1606276813220029</v>
+        <v>0.1568878149503611</v>
       </c>
       <c r="Q10">
         <v>32.43053511172</v>
@@ -1066,10 +1066,10 @@
         <v>291.8748160054799</v>
       </c>
       <c r="S10">
-        <v>0.02420936221424496</v>
+        <v>0.03119227814271431</v>
       </c>
       <c r="T10">
-        <v>0.02420936221424497</v>
+        <v>0.0311922781427143</v>
       </c>
     </row>
   </sheetData>
